--- a/src/main/resources/datatest/AccountCheckURL.xlsx
+++ b/src/main/resources/datatest/AccountCheckURL.xlsx
@@ -1402,8 +1402,8 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
